--- a/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P14NBC81-SET COLOCACION 4.5-6.5 # 2.xlsx
+++ b/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P14NBC81-SET COLOCACION 4.5-6.5 # 2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022\EQUIPOS BODEGA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022\EQUIPOS BODEGA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6927571-D099-44F6-9758-4AFE7474FF70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41976867-0633-47B6-8443-8038582DC4B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
   <si>
     <t>INSUMOS QUIRURGICOS ORTOMACX INQUIORT S.A.</t>
   </si>
@@ -128,12 +128,6 @@
     <t>TARRAJA 6.5MM</t>
   </si>
   <si>
-    <t xml:space="preserve">GUIA DE BROCA DE 3.2/4.5MM </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GUIA DE BROCA DE 3.2/6.5MM </t>
-  </si>
-  <si>
     <t xml:space="preserve">EXTRACTOR HEXAGONAL ANCLAJE RAPIDO  </t>
   </si>
   <si>
@@ -200,13 +194,13 @@
     <t>ATORNILLADOR ANCLAJE RAPIDO STARDRIVE</t>
   </si>
   <si>
-    <t>GUIA BROCA DOBLE 3.2/4.5</t>
-  </si>
-  <si>
     <t xml:space="preserve">ATORNILLADOR ANCLAJE DE 4,5MM HEXAGONAL </t>
   </si>
   <si>
     <t xml:space="preserve">ATORNILLADOR ANCLAJE DE 4,5MM STAR DRIVE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUIA DOBLE DE  BROCA DE 3.2/4.5MM </t>
   </si>
 </sst>
 </file>
@@ -966,10 +960,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L63"/>
+  <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1298,7 +1292,7 @@
         <v>2</v>
       </c>
       <c r="C32" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="18" x14ac:dyDescent="0.25">
@@ -1322,7 +1316,7 @@
         <v>1</v>
       </c>
       <c r="C35" s="32" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1330,7 +1324,7 @@
         <v>1</v>
       </c>
       <c r="C36" s="32" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1338,7 +1332,7 @@
         <v>1</v>
       </c>
       <c r="C37" s="32" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1346,15 +1340,15 @@
         <v>1</v>
       </c>
       <c r="C38" s="32" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="33">
         <v>1</v>
       </c>
-      <c r="C39" s="32" t="s">
-        <v>56</v>
+      <c r="C39" s="36" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1362,23 +1356,23 @@
         <v>1</v>
       </c>
       <c r="C40" s="36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="33">
         <v>1</v>
       </c>
-      <c r="C41" s="36" t="s">
-        <v>33</v>
+      <c r="C41" s="32" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C42" s="32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1386,88 +1380,88 @@
         <v>2</v>
       </c>
       <c r="C43" s="32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C44" s="32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C45" s="32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C46" s="32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C47" s="32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C48" s="32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="34">
+        <f>SUM(B29:B48)</f>
+        <v>28</v>
+      </c>
+      <c r="C49" s="32"/>
+    </row>
+    <row r="50" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="38"/>
+      <c r="C50" s="38"/>
+    </row>
+    <row r="51" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="35"/>
+      <c r="C51" s="34" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="33">
-        <v>1</v>
-      </c>
-      <c r="C49" s="32" t="s">
+    <row r="52" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="33">
+        <v>1</v>
+      </c>
+      <c r="C52" s="32" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="34">
-        <f>SUM(B29:B49)</f>
-        <v>29</v>
-      </c>
-      <c r="C50" s="32"/>
-    </row>
-    <row r="51" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="38"/>
-      <c r="C51" s="38"/>
-    </row>
-    <row r="52" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="35"/>
-      <c r="C52" s="34" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="53" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C53" s="32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C54" s="32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1475,7 +1469,7 @@
         <v>1</v>
       </c>
       <c r="C55" s="32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1483,7 +1477,7 @@
         <v>1</v>
       </c>
       <c r="C56" s="32" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1491,23 +1485,23 @@
         <v>1</v>
       </c>
       <c r="C57" s="32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="58" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="33">
         <v>1</v>
       </c>
-      <c r="C58" s="32" t="s">
-        <v>52</v>
+      <c r="C58" s="37" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="59" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="33">
         <v>1</v>
       </c>
-      <c r="C59" s="37" t="s">
-        <v>47</v>
+      <c r="C59" s="32" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="60" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1515,7 +1509,7 @@
         <v>1</v>
       </c>
       <c r="C60" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1523,23 +1517,15 @@
         <v>1</v>
       </c>
       <c r="C61" s="32" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="62" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="33">
-        <v>1</v>
-      </c>
-      <c r="C62" s="32" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="34">
-        <f t="shared" ref="B63" si="0">SUM(B53:B62)</f>
+      <c r="B62" s="34">
+        <f t="shared" ref="B62" si="0">SUM(B52:B61)</f>
         <v>11</v>
       </c>
-      <c r="C63" s="35"/>
+      <c r="C62" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="12">
